--- a/MTSBag/data/MTSBag_論文結果.xlsx
+++ b/MTSBag/data/MTSBag_論文結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baseb\Documents\github\修論\SMOTEMTSBag\MTSBag\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F59243-8F73-445E-B84E-C5A4F84C08E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D79BD-B464-489C-AD0C-C206EFAD61C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="8490" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="1515" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,43 +35,43 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>abalone(AB)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>yeast(YT)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Letter(LR)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>car(CA)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Wine(WN)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>cancer(BC)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>MTSBag</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>MTS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>g</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>RS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>論文の結果</t>
@@ -81,31 +81,21 @@
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>実験結果</t>
     <rPh sb="0" eb="4">
       <t>ジッケンケッカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="3">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,21 +128,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,7 +419,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -486,38 +471,62 @@
       <c r="C4">
         <v>103</v>
       </c>
+      <c r="D4">
+        <v>90.1</v>
+      </c>
+      <c r="E4">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>79.5</v>
+        <v>95.5</v>
       </c>
       <c r="C5">
-        <v>92.5</v>
+        <v>103.9</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>103.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>99.2</v>
       </c>
       <c r="C6">
-        <v>98.4</v>
+        <v>101.3</v>
+      </c>
+      <c r="D6">
+        <v>93.8</v>
+      </c>
+      <c r="E6">
+        <v>94.9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>99.2</v>
+        <v>94</v>
       </c>
       <c r="C7">
-        <v>101.3</v>
+        <v>98.4</v>
+      </c>
+      <c r="D7">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E7">
+        <v>67.2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -530,16 +539,28 @@
       <c r="C8">
         <v>100</v>
       </c>
+      <c r="D8">
+        <v>98.8</v>
+      </c>
+      <c r="E8">
+        <v>100.5</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>95.5</v>
+        <v>79.5</v>
       </c>
       <c r="C9">
-        <v>103.9</v>
+        <v>92.5</v>
+      </c>
+      <c r="D9">
+        <v>40.4</v>
+      </c>
+      <c r="E9">
+        <v>25.3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -576,62 +597,62 @@
       <c r="C12">
         <v>71.3</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.90196940925065616</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.83406920115322392</v>
+      <c r="D12">
+        <v>91.8</v>
+      </c>
+      <c r="E12">
+        <v>88.5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>77.8</v>
+        <v>94.1</v>
       </c>
       <c r="C13">
-        <v>80.5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.44116139010448502</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.27263692190085725</v>
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>90.8</v>
+      </c>
+      <c r="E13">
+        <v>94.9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>87.9</v>
+        <v>98.5</v>
       </c>
       <c r="C14">
-        <v>83.3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.76031972484427557</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.59710087153860458</v>
+        <v>89.7</v>
+      </c>
+      <c r="D14">
+        <v>94.2</v>
+      </c>
+      <c r="E14">
+        <v>97.8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>98.5</v>
+        <v>87.9</v>
       </c>
       <c r="C15">
-        <v>89.7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.95259196600584206</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.0106772115669518</v>
+        <v>83.3</v>
+      </c>
+      <c r="D15">
+        <v>75.3</v>
+      </c>
+      <c r="E15">
+        <v>58.8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -644,31 +665,34 @@
       <c r="C16">
         <v>97.8</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.97677088495588893</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.0259922708198548</v>
+      <c r="D16">
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <v>95.3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>94.1</v>
+        <v>77.8</v>
       </c>
       <c r="C17">
-        <v>98</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.9171397561579987</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.94066133548631492</v>
+        <v>80.5</v>
+      </c>
+      <c r="D17">
+        <v>47.1</v>
+      </c>
+      <c r="E17">
+        <v>25.2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C17">
+    <sortCondition ref="A12:A17"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -677,7 +701,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
